--- a/uploads/templates/template_dosen.xlsx
+++ b/uploads/templates/template_dosen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maranathaedu-my.sharepoint.com/personal/if2072023_student_it_maranatha_edu/Documents/SEMESTER 5/Proyek Perangkat Lunak/TubesPPL/uploads/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TubesPPL\uploads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104865E91B45CE5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{883A61D4-4A91-4EC9-A7CA-F18C8AE1AF1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC9DE7-2EFF-4EAF-A64B-D8A62445B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1710" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>Status 1/0</t>
   </si>
   <si>
-    <t>Arya</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>arya</t>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>johndoe</t>
   </si>
 </sst>
 </file>
@@ -113,10 +113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,18 +381,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,18 +400,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1234</v>
+        <v>70000</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
